--- a/Cypress_Testing/cypress/fixtures/data/testData.xlsx
+++ b/Cypress_Testing/cypress/fixtures/data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Candidates"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>vacancy</t>
   </si>
@@ -38,58 +38,61 @@
     <t>Software Engineer</t>
   </si>
   <si>
+    <t>bala</t>
+  </si>
+  <si>
+    <t>Payroll Administrator</t>
+  </si>
+  <si>
+    <t>Payroll Adminstrator</t>
+  </si>
+  <si>
+    <t>Kristin</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
+  </si>
+  <si>
+    <t>Keerthana</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>johndoe@example.com</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t>janedane@example.com</t>
+  </si>
+  <si>
     <t>Rahul</t>
-  </si>
-  <si>
-    <t>Payroll Administrator</t>
-  </si>
-  <si>
-    <t>Payroll Adminstrator</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Sales Representative</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Column 1</t>
-  </si>
-  <si>
-    <t>Column 2</t>
-  </si>
-  <si>
-    <t>Column 3</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>johndoe@example.com</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Dane</t>
-  </si>
-  <si>
-    <t>janedane@example.com</t>
   </si>
   <si>
     <t>Bila</t>
@@ -718,7 +721,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -780,21 +783,21 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -802,7 +805,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -810,7 +813,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -818,7 +821,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -826,7 +829,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -834,7 +837,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -897,7 +900,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
